--- a/biology/Zoologie/Benthodytes/Benthodytes.xlsx
+++ b/biology/Zoologie/Benthodytes/Benthodytes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Benthodytes sont un genre d'holothuries (les concombres de mer) abyssales de la famille des Psychropotidae. Elles ont la rare particularité d'être des holothuries nageuses.
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces holothuries ont un corps translucide et très gélatineux, composé principalement d'eau, ce qui leur permet d'avoir un poids très faible dans l'eau. La plupart sont capables de nager un moment avant de retomber sur le fond : elles sont donc « benthopélagiques »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces holothuries ont un corps translucide et très gélatineux, composé principalement d'eau, ce qui leur permet d'avoir un poids très faible dans l'eau. La plupart sont capables de nager un moment avant de retomber sur le fond : elles sont donc « benthopélagiques ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (10 juillet 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (10 juillet 2014) :
 Benthodytes abyssicola Théel, 1882
 Benthodytes browni Vaney, 1908
 Benthodytes gosarsi Gebruk, 2008
